--- a/Code/Results/Cases/Case_9_56/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_9_56/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.42737471244377</v>
+        <v>20.38804394006462</v>
       </c>
       <c r="C2">
-        <v>15.36984353289744</v>
+        <v>16.55880700921132</v>
       </c>
       <c r="D2">
-        <v>3.879278225891427</v>
+        <v>3.978572460536197</v>
       </c>
       <c r="E2">
-        <v>13.74810502577945</v>
+        <v>13.51318895102768</v>
       </c>
       <c r="F2">
-        <v>26.58944737580115</v>
+        <v>24.15817168410138</v>
       </c>
       <c r="G2">
-        <v>38.08729803568892</v>
+        <v>33.23502145310502</v>
       </c>
       <c r="H2">
-        <v>2.02271392818071</v>
+        <v>2.01680557020313</v>
       </c>
       <c r="I2">
-        <v>2.872157110345196</v>
+        <v>2.894936200707448</v>
       </c>
       <c r="J2">
-        <v>11.69152631011409</v>
+        <v>11.28333509732032</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>13.6517412924327</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>9.903021210278151</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>17.50245630092957</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>17.73049186270999</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.08443305772011</v>
+        <v>19.07097837392973</v>
       </c>
       <c r="C3">
-        <v>14.47996337283267</v>
+        <v>15.48743117606118</v>
       </c>
       <c r="D3">
-        <v>3.861670544378409</v>
+        <v>3.919867123315677</v>
       </c>
       <c r="E3">
-        <v>13.00347274617256</v>
+        <v>12.83002572613393</v>
       </c>
       <c r="F3">
-        <v>25.44141319262733</v>
+        <v>23.29397839552501</v>
       </c>
       <c r="G3">
-        <v>36.23793860954145</v>
+        <v>31.87866134082276</v>
       </c>
       <c r="H3">
-        <v>1.768479311774433</v>
+        <v>1.778720617811355</v>
       </c>
       <c r="I3">
-        <v>2.640317467842707</v>
+        <v>2.697340927936062</v>
       </c>
       <c r="J3">
-        <v>11.42811588726177</v>
+        <v>11.09856141432203</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>13.73324733589626</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>9.706233661322521</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>16.44230114420758</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>16.65071001909011</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.2105993052189</v>
+        <v>18.2137879560361</v>
       </c>
       <c r="C4">
-        <v>13.91080946664218</v>
+        <v>14.79924809033981</v>
       </c>
       <c r="D4">
-        <v>3.849916049232364</v>
+        <v>3.88329468081458</v>
       </c>
       <c r="E4">
-        <v>12.52416786205003</v>
+        <v>12.39070916621734</v>
       </c>
       <c r="F4">
-        <v>24.71774708278386</v>
+        <v>22.75108242459055</v>
       </c>
       <c r="G4">
-        <v>35.06269787099188</v>
+        <v>31.02385585395657</v>
       </c>
       <c r="H4">
-        <v>1.607362082973093</v>
+        <v>1.627712443512845</v>
       </c>
       <c r="I4">
-        <v>2.494384042480385</v>
+        <v>2.573043022382075</v>
       </c>
       <c r="J4">
-        <v>11.26605870182628</v>
+        <v>10.98289614187614</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>13.77922770276196</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>9.605951192784692</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>15.75815547757143</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>15.95337704201008</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.84119448449515</v>
+        <v>17.85148480372977</v>
       </c>
       <c r="C5">
-        <v>13.68702730767077</v>
+        <v>14.52399659890912</v>
       </c>
       <c r="D5">
-        <v>3.845408623914953</v>
+        <v>3.869479100529157</v>
       </c>
       <c r="E5">
-        <v>12.32065382103064</v>
+        <v>12.20447022027076</v>
       </c>
       <c r="F5">
-        <v>24.39380963082156</v>
+        <v>22.50609970760248</v>
       </c>
       <c r="G5">
-        <v>34.52966315298303</v>
+        <v>30.63209095834845</v>
       </c>
       <c r="H5">
-        <v>1.581461265308005</v>
+        <v>1.564731359965465</v>
       </c>
       <c r="I5">
-        <v>2.515168855581321</v>
+        <v>2.522515939529558</v>
       </c>
       <c r="J5">
-        <v>11.19113125013615</v>
+        <v>10.92802787122979</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>13.78445741837581</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>9.559450690637123</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>15.47333202583838</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>15.66258446062126</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.77804163105103</v>
+        <v>17.78965149783189</v>
       </c>
       <c r="C6">
-        <v>13.66645868067848</v>
+        <v>14.49345583887739</v>
       </c>
       <c r="D6">
-        <v>3.845302982271316</v>
+        <v>3.868684343968322</v>
       </c>
       <c r="E6">
-        <v>12.28326490117216</v>
+        <v>12.17047075226074</v>
       </c>
       <c r="F6">
-        <v>24.30958170747475</v>
+        <v>22.43972411271324</v>
       </c>
       <c r="G6">
-        <v>34.38598005899482</v>
+        <v>30.52001629584576</v>
       </c>
       <c r="H6">
-        <v>1.59328060912627</v>
+        <v>1.567345833057048</v>
       </c>
       <c r="I6">
-        <v>2.530718886305324</v>
+        <v>2.515429144818602</v>
       </c>
       <c r="J6">
-        <v>11.16786142014132</v>
+        <v>10.91008549256275</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>13.77003943668378</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>9.538703716187481</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>15.42828677193376</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>15.6161427480185</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.20283501173666</v>
+        <v>18.20621866948868</v>
       </c>
       <c r="C7">
-        <v>13.95312545083347</v>
+        <v>14.83119660380266</v>
       </c>
       <c r="D7">
-        <v>3.851683567983748</v>
+        <v>3.889920714712461</v>
       </c>
       <c r="E7">
-        <v>12.51270803416941</v>
+        <v>12.3800956876695</v>
       </c>
       <c r="F7">
-        <v>24.63216412651904</v>
+        <v>22.64027375248426</v>
       </c>
       <c r="G7">
-        <v>34.908863259734</v>
+        <v>30.95238323368542</v>
       </c>
       <c r="H7">
-        <v>1.605658380416674</v>
+        <v>1.625668012654844</v>
       </c>
       <c r="I7">
-        <v>2.495650663063627</v>
+        <v>2.574749508532225</v>
       </c>
       <c r="J7">
-        <v>11.23569623112104</v>
+        <v>10.89632560982652</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>13.72083571282092</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>9.552182392590916</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>15.7616747473679</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>15.95491106489325</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.97103262101639</v>
+        <v>19.94019417536155</v>
       </c>
       <c r="C8">
-        <v>15.12379531964121</v>
+        <v>16.22833151882673</v>
       </c>
       <c r="D8">
-        <v>3.876041470286901</v>
+        <v>3.973597728780924</v>
       </c>
       <c r="E8">
-        <v>13.48514260741594</v>
+        <v>13.27064822220813</v>
       </c>
       <c r="F8">
-        <v>26.09575968956081</v>
+        <v>23.65402041043446</v>
       </c>
       <c r="G8">
-        <v>37.27527602999707</v>
+        <v>32.80357788432809</v>
       </c>
       <c r="H8">
-        <v>1.935067594073126</v>
+        <v>1.933240922669203</v>
       </c>
       <c r="I8">
-        <v>2.794755387136119</v>
+        <v>2.828250520669558</v>
       </c>
       <c r="J8">
-        <v>11.56304601959541</v>
+        <v>10.98926003960032</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>13.57559278238894</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>9.724411383802622</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>17.15280843905286</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>17.37032216258357</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.0549036799453</v>
+        <v>22.96218041259043</v>
       </c>
       <c r="C9">
-        <v>17.16424988071689</v>
+        <v>18.68096837923075</v>
       </c>
       <c r="D9">
-        <v>3.912634547872355</v>
+        <v>4.11535320738903</v>
       </c>
       <c r="E9">
-        <v>15.23031913720228</v>
+        <v>14.87251665578856</v>
       </c>
       <c r="F9">
-        <v>28.93868389156969</v>
+        <v>25.79455631025987</v>
       </c>
       <c r="G9">
-        <v>41.82339997933352</v>
+        <v>36.23463917676104</v>
       </c>
       <c r="H9">
-        <v>2.543934988791485</v>
+        <v>2.502257467063347</v>
       </c>
       <c r="I9">
-        <v>3.352431501359964</v>
+        <v>3.301957681238796</v>
       </c>
       <c r="J9">
-        <v>12.25102170447043</v>
+        <v>11.41985677327029</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>13.38967487996151</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>10.34902315794863</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>19.60362437187394</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>19.86423090242045</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.1463140227627</v>
+        <v>25.01124578246003</v>
       </c>
       <c r="C10">
-        <v>18.61593027128877</v>
+        <v>20.33979431267307</v>
       </c>
       <c r="D10">
-        <v>3.950512527136218</v>
+        <v>4.263738960180728</v>
       </c>
       <c r="E10">
-        <v>15.8880942679903</v>
+        <v>15.43817632385554</v>
       </c>
       <c r="F10">
-        <v>30.55714283501847</v>
+        <v>26.8219398703056</v>
       </c>
       <c r="G10">
-        <v>44.31004381193681</v>
+        <v>38.40425835845685</v>
       </c>
       <c r="H10">
-        <v>2.944858637662077</v>
+        <v>2.873144137932056</v>
       </c>
       <c r="I10">
-        <v>3.741122983631585</v>
+        <v>3.629867820693646</v>
       </c>
       <c r="J10">
-        <v>12.61181093531434</v>
+        <v>11.29563335400135</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>13.01442879645371</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>10.624386636035</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>20.98630240287597</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>21.26295885649199</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.55534814102859</v>
+        <v>26.41899366494215</v>
       </c>
       <c r="C11">
-        <v>19.70848234182837</v>
+        <v>21.20586731735176</v>
       </c>
       <c r="D11">
-        <v>4.174490848982218</v>
+        <v>4.656874710179465</v>
       </c>
       <c r="E11">
-        <v>12.13226277418388</v>
+        <v>11.68456432753721</v>
       </c>
       <c r="F11">
-        <v>28.39476114370266</v>
+        <v>24.65816588814385</v>
       </c>
       <c r="G11">
-        <v>40.31339737783642</v>
+        <v>35.75147443968763</v>
       </c>
       <c r="H11">
-        <v>3.556146411480074</v>
+        <v>3.490272759178672</v>
       </c>
       <c r="I11">
-        <v>3.863889596400988</v>
+        <v>3.733399061030866</v>
       </c>
       <c r="J11">
-        <v>11.64896502464544</v>
+        <v>9.894557702241761</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>11.67435523519269</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>9.245440013283357</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>19.38493982928207</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>19.61764918935716</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.33298412226417</v>
+        <v>27.20363895083835</v>
       </c>
       <c r="C12">
-        <v>20.29694717419487</v>
+        <v>21.57233758183248</v>
       </c>
       <c r="D12">
-        <v>4.436070559882991</v>
+        <v>4.988121590895334</v>
       </c>
       <c r="E12">
-        <v>9.714044482419048</v>
+        <v>9.300265102390222</v>
       </c>
       <c r="F12">
-        <v>26.31099797466646</v>
+        <v>22.79599402351506</v>
       </c>
       <c r="G12">
-        <v>36.56540752595883</v>
+        <v>33.00575822578289</v>
       </c>
       <c r="H12">
-        <v>4.606220428288398</v>
+        <v>4.55591025907409</v>
       </c>
       <c r="I12">
-        <v>3.893572370396193</v>
+        <v>3.757918135996043</v>
       </c>
       <c r="J12">
-        <v>10.79704935827706</v>
+        <v>9.009003666713962</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>10.80350581074703</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>8.142756815225235</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>17.72137433726888</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>17.91711859872802</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.69379483968642</v>
+        <v>27.57904133540442</v>
       </c>
       <c r="C13">
-        <v>20.60347912621975</v>
+        <v>21.64921323323825</v>
       </c>
       <c r="D13">
-        <v>4.728836366266763</v>
+        <v>5.266261912412892</v>
       </c>
       <c r="E13">
-        <v>8.820277462047654</v>
+        <v>8.511690863307686</v>
       </c>
       <c r="F13">
-        <v>23.99728728944936</v>
+        <v>20.9940486593892</v>
       </c>
       <c r="G13">
-        <v>32.48060915341649</v>
+        <v>29.64066689659194</v>
       </c>
       <c r="H13">
-        <v>5.800374526199721</v>
+        <v>5.764371161425639</v>
       </c>
       <c r="I13">
-        <v>3.855030351817194</v>
+        <v>3.727506900621797</v>
       </c>
       <c r="J13">
-        <v>9.928013573505641</v>
+        <v>8.510667077802394</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>10.18993856127506</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>7.167965620775909</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>15.86688717126112</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>16.0276892613265</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.76349295148875</v>
+        <v>27.66232099328099</v>
       </c>
       <c r="C14">
-        <v>20.70736179184255</v>
+        <v>21.58362858288377</v>
       </c>
       <c r="D14">
-        <v>4.952598536632731</v>
+        <v>5.438044589026589</v>
       </c>
       <c r="E14">
-        <v>9.35849329450348</v>
+        <v>9.151814509012837</v>
       </c>
       <c r="F14">
-        <v>22.2279604436765</v>
+        <v>19.71984914083894</v>
       </c>
       <c r="G14">
-        <v>29.381120224558</v>
+        <v>26.93396456638907</v>
       </c>
       <c r="H14">
-        <v>6.687546970905651</v>
+        <v>6.659793036309216</v>
       </c>
       <c r="I14">
-        <v>3.798711202099483</v>
+        <v>3.682906743414178</v>
       </c>
       <c r="J14">
-        <v>9.305721219959064</v>
+        <v>8.305275416338958</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>9.864851600405061</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>6.547210033803657</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>14.4587008333575</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>14.59482190275623</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.68999403723902</v>
+        <v>27.59395128488158</v>
       </c>
       <c r="C15">
-        <v>20.68590304076226</v>
+        <v>21.51709434385773</v>
       </c>
       <c r="D15">
-        <v>5.007321876401112</v>
+        <v>5.466476998621729</v>
       </c>
       <c r="E15">
-        <v>9.614447137194498</v>
+        <v>9.43504733159625</v>
       </c>
       <c r="F15">
-        <v>21.71908899554966</v>
+        <v>19.39244328672925</v>
       </c>
       <c r="G15">
-        <v>28.50029472878047</v>
+        <v>26.10524180606841</v>
       </c>
       <c r="H15">
-        <v>6.889606603445751</v>
+        <v>6.864171722020461</v>
       </c>
       <c r="I15">
-        <v>3.770038357419594</v>
+        <v>3.660577906908463</v>
       </c>
       <c r="J15">
-        <v>9.142185090546908</v>
+        <v>8.308189659873642</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>9.811551420174542</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>6.410954812363155</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>14.07333583274427</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>14.20325750539866</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.79707068503625</v>
+        <v>26.71767537060807</v>
       </c>
       <c r="C16">
-        <v>20.07763497664281</v>
+        <v>20.8948127432878</v>
       </c>
       <c r="D16">
-        <v>4.928926260952653</v>
+        <v>5.290971675454439</v>
       </c>
       <c r="E16">
-        <v>9.358707691633901</v>
+        <v>9.219950748484335</v>
       </c>
       <c r="F16">
-        <v>21.30544356200842</v>
+        <v>19.44821765837342</v>
       </c>
       <c r="G16">
-        <v>27.89528443705911</v>
+        <v>25.0902750529624</v>
       </c>
       <c r="H16">
-        <v>6.608116076303092</v>
+        <v>6.588610226623187</v>
       </c>
       <c r="I16">
-        <v>3.613483209559701</v>
+        <v>3.53369511364351</v>
       </c>
       <c r="J16">
-        <v>9.125275925249033</v>
+        <v>8.824525408484659</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>10.07626008989272</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>6.618072300216325</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>13.7379034648859</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>13.8698168980987</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.05543611220696</v>
+        <v>25.98143057635384</v>
       </c>
       <c r="C17">
-        <v>19.54313484049706</v>
+        <v>20.43674101351209</v>
       </c>
       <c r="D17">
-        <v>4.743898145144078</v>
+        <v>5.073952473282676</v>
       </c>
       <c r="E17">
-        <v>8.667980676051348</v>
+        <v>8.511341004802302</v>
       </c>
       <c r="F17">
-        <v>21.96741474290874</v>
+        <v>20.15040338432478</v>
       </c>
       <c r="G17">
-        <v>29.15672168605499</v>
+        <v>25.89913817440542</v>
       </c>
       <c r="H17">
-        <v>5.868752397922012</v>
+        <v>5.850508214589337</v>
       </c>
       <c r="I17">
-        <v>3.522761922555735</v>
+        <v>3.459038165436243</v>
       </c>
       <c r="J17">
-        <v>9.444985558835734</v>
+        <v>9.292165657887859</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>10.46433870537614</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>7.072404772201449</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>14.26431124249163</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>14.41089137881729</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.37595667706747</v>
+        <v>25.29785184647405</v>
       </c>
       <c r="C18">
-        <v>18.99074757119926</v>
+        <v>20.05923765409551</v>
       </c>
       <c r="D18">
-        <v>4.46539148857788</v>
+        <v>4.792189614762648</v>
       </c>
       <c r="E18">
-        <v>8.589281059579557</v>
+        <v>8.357075566172254</v>
       </c>
       <c r="F18">
-        <v>23.68543179743746</v>
+        <v>21.6026617961943</v>
       </c>
       <c r="G18">
-        <v>32.26737289867243</v>
+        <v>28.33904819102166</v>
       </c>
       <c r="H18">
-        <v>4.704387438788713</v>
+        <v>4.682720087670746</v>
       </c>
       <c r="I18">
-        <v>3.480555942639766</v>
+        <v>3.421869397800068</v>
       </c>
       <c r="J18">
-        <v>10.11703608531205</v>
+        <v>9.891381003512048</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>11.09316000212833</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>7.868324710585671</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>15.59309494930163</v>
+        <v>0</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>15.76928044277521</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.80757083886157</v>
+        <v>24.7179986158878</v>
       </c>
       <c r="C19">
-        <v>18.55616936330025</v>
+        <v>19.85426433320676</v>
       </c>
       <c r="D19">
-        <v>4.197329658423118</v>
+        <v>4.516401685701375</v>
       </c>
       <c r="E19">
-        <v>10.48263269180603</v>
+        <v>10.16623046505906</v>
       </c>
       <c r="F19">
-        <v>25.97626494424929</v>
+        <v>23.45350157036587</v>
       </c>
       <c r="G19">
-        <v>36.36288435536252</v>
+        <v>31.62578900138985</v>
       </c>
       <c r="H19">
-        <v>3.479810053213914</v>
+        <v>3.447429293127544</v>
       </c>
       <c r="I19">
-        <v>3.492558313069866</v>
+        <v>3.431304862039728</v>
       </c>
       <c r="J19">
-        <v>10.9851019809423</v>
+        <v>10.56543519279099</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>11.87898447777103</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>8.862963209107352</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>17.45880304082696</v>
+        <v>0</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>17.67269400352763</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.6089187330431</v>
+        <v>24.48668173162953</v>
       </c>
       <c r="C20">
-        <v>18.35789366769765</v>
+        <v>20.03509057396004</v>
       </c>
       <c r="D20">
-        <v>3.949747705865965</v>
+        <v>4.230830255267554</v>
       </c>
       <c r="E20">
-        <v>15.67273907485039</v>
+        <v>15.25198210744028</v>
       </c>
       <c r="F20">
-        <v>29.91380796170606</v>
+        <v>26.48090724731417</v>
       </c>
       <c r="G20">
-        <v>43.27097956318615</v>
+        <v>37.32403198455016</v>
       </c>
       <c r="H20">
-        <v>2.836551051190963</v>
+        <v>2.774612775984292</v>
       </c>
       <c r="I20">
-        <v>3.644707949169185</v>
+        <v>3.555335382297657</v>
       </c>
       <c r="J20">
-        <v>12.4295430121083</v>
+        <v>11.45924550281383</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>13.05686010542008</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>10.48007962894557</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>20.63788825040183</v>
+        <v>0</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>20.9104883794856</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.05078966452222</v>
+        <v>25.88940066630507</v>
       </c>
       <c r="C21">
-        <v>19.33621908889616</v>
+        <v>21.12361294960529</v>
       </c>
       <c r="D21">
-        <v>3.953163563018281</v>
+        <v>4.363577751382662</v>
       </c>
       <c r="E21">
-        <v>16.95077066527164</v>
+        <v>16.44555443585008</v>
       </c>
       <c r="F21">
-        <v>31.67543007225051</v>
+        <v>27.10262739823824</v>
       </c>
       <c r="G21">
-        <v>46.09614792359753</v>
+        <v>40.66429654492327</v>
       </c>
       <c r="H21">
-        <v>3.177894095010831</v>
+        <v>3.083926969579722</v>
       </c>
       <c r="I21">
-        <v>3.948194831244876</v>
+        <v>3.799223432376497</v>
       </c>
       <c r="J21">
-        <v>12.92048670517131</v>
+        <v>10.50076576740702</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>12.72653805642403</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>10.65321828264966</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>22.04443010431893</v>
+        <v>0</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>22.3224567222431</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>26.985653165748</v>
+        <v>26.79958436885927</v>
       </c>
       <c r="C22">
-        <v>19.9366179199378</v>
+        <v>21.7756818153983</v>
       </c>
       <c r="D22">
-        <v>3.958817471901984</v>
+        <v>4.464909588898933</v>
       </c>
       <c r="E22">
-        <v>17.50956881685259</v>
+        <v>16.95358376977769</v>
       </c>
       <c r="F22">
-        <v>32.71688583690639</v>
+        <v>27.4028771727606</v>
       </c>
       <c r="G22">
-        <v>47.74433761420462</v>
+        <v>42.7469368923297</v>
       </c>
       <c r="H22">
-        <v>3.385238137541043</v>
+        <v>3.270807291054721</v>
       </c>
       <c r="I22">
-        <v>4.139310487280168</v>
+        <v>3.9509871371682</v>
       </c>
       <c r="J22">
-        <v>13.20728771584521</v>
+        <v>9.80882923998208</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>12.47275811034369</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>10.72635305345787</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>22.79424375455142</v>
+        <v>0</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>23.07238386530087</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.49294847269904</v>
+        <v>26.32000692903192</v>
       </c>
       <c r="C23">
-        <v>19.57764918887916</v>
+        <v>21.40483538108583</v>
       </c>
       <c r="D23">
-        <v>3.952817664537902</v>
+        <v>4.394326958828627</v>
       </c>
       <c r="E23">
-        <v>17.22090673997931</v>
+        <v>16.69113108512906</v>
       </c>
       <c r="F23">
-        <v>32.23825365793812</v>
+        <v>27.38832039016326</v>
       </c>
       <c r="G23">
-        <v>47.00107554814883</v>
+        <v>41.62532470613324</v>
       </c>
       <c r="H23">
-        <v>3.275634899838931</v>
+        <v>3.172833962360215</v>
       </c>
       <c r="I23">
-        <v>4.035709534673144</v>
+        <v>3.868113957934538</v>
       </c>
       <c r="J23">
-        <v>13.0842867323432</v>
+        <v>10.33447293373394</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>12.67811631104643</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>10.77593787925744</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>22.39047677575734</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>22.67135639012784</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.54091438001543</v>
+        <v>24.41690499087757</v>
       </c>
       <c r="C24">
-        <v>18.23934663912407</v>
+        <v>19.94359652558785</v>
       </c>
       <c r="D24">
-        <v>3.933124134004288</v>
+        <v>4.199185912336167</v>
       </c>
       <c r="E24">
-        <v>16.07768254450481</v>
+        <v>15.65132507838585</v>
       </c>
       <c r="F24">
-        <v>30.26587530866945</v>
+        <v>26.77534856761601</v>
       </c>
       <c r="G24">
-        <v>43.89976597863707</v>
+        <v>37.83275289739006</v>
       </c>
       <c r="H24">
-        <v>2.852904278046191</v>
+        <v>2.790342100586762</v>
       </c>
       <c r="I24">
-        <v>3.6416525897976</v>
+        <v>3.549586645740129</v>
       </c>
       <c r="J24">
-        <v>12.56994828817923</v>
+        <v>11.57847664387017</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>13.21669164480944</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>10.66401458664214</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>20.8115941469006</v>
+        <v>0</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>21.08941374868201</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.25742245401092</v>
+        <v>22.1819332301567</v>
       </c>
       <c r="C25">
-        <v>16.70188180178426</v>
+        <v>18.11500070919354</v>
       </c>
       <c r="D25">
-        <v>3.907649843513445</v>
+        <v>4.082170777907635</v>
       </c>
       <c r="E25">
-        <v>14.76351875416795</v>
+        <v>14.44560640467259</v>
       </c>
       <c r="F25">
-        <v>28.05939359788772</v>
+        <v>25.1672722141278</v>
       </c>
       <c r="G25">
-        <v>40.40094974675974</v>
+        <v>35.05534039127031</v>
       </c>
       <c r="H25">
-        <v>2.381843293433301</v>
+        <v>2.351723722211073</v>
       </c>
       <c r="I25">
-        <v>3.206992919428966</v>
+        <v>3.181812792528228</v>
       </c>
       <c r="J25">
-        <v>12.01626247134664</v>
+        <v>11.34885128981767</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>13.40232365492488</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>10.11756031397497</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>18.98028882475575</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>19.2297955391518</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
